--- a/Turma Home Jan2018/1° Sabado/Aula 2/Aula Se 2.xlsx
+++ b/Turma Home Jan2018/1° Sabado/Aula 2/Aula Se 2.xlsx
@@ -1,15 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4BDE0A-0777-4808-830D-59487C7F3E91}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Media_Poderada" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -316,142 +325,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>107673</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>57978</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>171129</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Grupo 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{458DC52F-EB0D-481E-A8CC-6D3450B5D754}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5560736" y="0"/>
-          <a:ext cx="1172680" cy="361629"/>
-          <a:chOff x="9009915" y="332447"/>
-          <a:chExt cx="3182085" cy="978406"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="3" name="Picture 2" descr="http://www.ccbeusorocaba.com.br/wp-content/uploads/2014/10/logo-site.png">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E8A1DE9-97AB-40AD-B7B1-F2A94AB3E819}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-            <a:biLevel thresh="25000"/>
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect b="22842"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="9009915" y="332447"/>
-            <a:ext cx="3177322" cy="753404"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:effectLst/>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="4" name="Picture 2" descr="http://www.ccbeusorocaba.com.br/wp-content/uploads/2014/10/logo-site.png">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33350992-9D83-4221-BACA-C4500CC4C782}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-            <a:biLevel thresh="25000"/>
-            <a:extLst>
-              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a14:imgLayer r:embed="rId3">
-                    <a14:imgEffect>
-                      <a14:brightnessContrast bright="20000" contrast="-40000"/>
-                    </a14:imgEffect>
-                  </a14:imgLayer>
-                </a14:imgProps>
-              </a:ext>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect t="76760"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="9014678" y="1083922"/>
-            <a:ext cx="3177322" cy="226931"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:effectLst/>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -878,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:J23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
